--- a/data/input/absenteeism_data_20.xlsx
+++ b/data/input/absenteeism_data_20.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>37366</v>
+        <v>99202</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Danilo Fogaça</t>
+          <t>Arthur Barros</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>5323.01</v>
+        <v>11165.38</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>65029</v>
+        <v>97114</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nicolas da Costa</t>
+          <t>Levi da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>9655.35</v>
+        <v>5696.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82418</v>
+        <v>10094</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas Castro</t>
+          <t>Maria Luiza Freitas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>7797.67</v>
+        <v>10986.86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10460</v>
+        <v>25761</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kamilly Moraes</t>
+          <t>Ana da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,176 +577,176 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>8707.07</v>
+        <v>9187.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>46065</v>
+        <v>53359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cauê Fernandes</t>
+          <t>Davi Luiz Peixoto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G6" t="n">
-        <v>10300.69</v>
+        <v>4702.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>38020</v>
+        <v>80556</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carolina Azevedo</t>
+          <t>Laura Lopes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45105</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>4629.92</v>
+        <v>6129.76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3897</v>
+        <v>44994</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Augusto Moura</t>
+          <t>Luiz Henrique Moreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>9234.120000000001</v>
+        <v>2958.04</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>35888</v>
+        <v>39233</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Luiz Miguel Nunes</t>
+          <t>Esther Fernandes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45103</v>
       </c>
       <c r="G9" t="n">
-        <v>4186.73</v>
+        <v>10589.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>84823</v>
+        <v>41778</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Helena Duarte</t>
+          <t>Ana Beatriz da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>4034.01</v>
+        <v>8631.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21442</v>
+        <v>67081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. João Guilherme Barbosa</t>
+          <t>Bárbara Dias</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45105</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>5797.42</v>
+        <v>2628.76</v>
       </c>
     </row>
   </sheetData>
